--- a/FirstFrameworkDesign/input/firstinput.xlsx
+++ b/FirstFrameworkDesign/input/firstinput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FALMS\Desktop\Eclipse projects\samplevinod\vinodautomation\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FALMS\Desktop\ramananrepository\FirstFrameworkDesign\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9E21C-BAAC-406B-8794-E511A6DD4147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C526C3-74E9-4279-B0E6-4DBCC251D7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E9636B-B64F-4294-9E92-D407497C7A6C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>browsername</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Opera</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>

--- a/FirstFrameworkDesign/input/firstinput.xlsx
+++ b/FirstFrameworkDesign/input/firstinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FALMS\Desktop\ramananrepository\FirstFrameworkDesign\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C526C3-74E9-4279-B0E6-4DBCC251D7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5B738-0E62-4773-89F7-ACC01BAFF01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E9636B-B64F-4294-9E92-D407497C7A6C}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FirstFrameworkDesign/input/firstinput.xlsx
+++ b/FirstFrameworkDesign/input/firstinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FALMS\Desktop\ramananrepository\FirstFrameworkDesign\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5B738-0E62-4773-89F7-ACC01BAFF01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177246FC-5D2C-4230-8F2C-F59023A3B5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65E9636B-B64F-4294-9E92-D407497C7A6C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>browsername</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>https://flipkart.com</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>https://amazon.com</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>Opera</t>
   </si>
 </sst>
 </file>
@@ -417,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1154A9B9-2CBA-4A09-BD6C-93621DB02BA9}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,27 +433,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4B78FBB6-0774-4E5F-B70F-0EB6BCE361DE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3C0847F6-B373-4453-8944-B0A3CB105C8F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{57B4934E-20AC-4E8E-894C-7BEAF31704CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
